--- a/jb-environment/join-benchmark/results/model_eval/extra_features_all>all/set_4.xlsx
+++ b/jb-environment/join-benchmark/results/model_eval/extra_features_all>all/set_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marko-mac/Developer/TUDelft/mscthesis/msc-wis-test-environment/jb-environment/join-benchmark/results/model_eval/extra_features/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marko-mac/Developer/TUDelft/mscthesis/msc-wis-test-environment/jb-environment/join-benchmark/results/model_eval/extra_features_all&gt;all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7A2B9948-23EB-F644-A496-75A5479C39FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E60BFDE-BF96-9047-8F43-D6B0536D0F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2220" windowWidth="27340" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16660" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="set_4" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="465">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -635,15 +635,6 @@
     <t>0.7540975665953749</t>
   </si>
   <si>
-    <t>2024-02-26T06:06:59.458790</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:07:06.067421</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:07:13.745258</t>
-  </si>
-  <si>
     <t>0.28847491838166517</t>
   </si>
   <si>
@@ -683,18 +674,6 @@
     <t>-0.126411713278806</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:21.428597</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:07:28.811000</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:07:36.690599</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:07:44.064799</t>
-  </si>
-  <si>
     <t>0.2963676891919684</t>
   </si>
   <si>
@@ -722,9 +701,6 @@
     <t>-0.126387108503444</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:51.051501</t>
-  </si>
-  <si>
     <t>0.292066208318788</t>
   </si>
   <si>
@@ -740,12 +716,6 @@
     <t>0.7243490254926679</t>
   </si>
   <si>
-    <t>2024-02-26T06:07:58.117664</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:08:05.733030</t>
-  </si>
-  <si>
     <t>0.30049586573510284</t>
   </si>
   <si>
@@ -791,12 +761,6 @@
     <t>0.748833316703406</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:12.657619</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:08:19.846486</t>
-  </si>
-  <si>
     <t>0.28784895592297954</t>
   </si>
   <si>
@@ -839,9 +803,6 @@
     <t>0.7567239234603089</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:27.423676</t>
-  </si>
-  <si>
     <t>0.30085581836267467</t>
   </si>
   <si>
@@ -887,15 +848,6 @@
     <t>0.9499935812867242</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:34.556898</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:08:41.721889</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:08:49.133625</t>
-  </si>
-  <si>
     <t>0.3383982691080013</t>
   </si>
   <si>
@@ -941,12 +893,6 @@
     <t>0.7469698347427178</t>
   </si>
   <si>
-    <t>2024-02-26T06:08:56.291540</t>
-  </si>
-  <si>
-    <t>2024-02-26T06:09:03.448615</t>
-  </si>
-  <si>
     <t>0.29549365026364793</t>
   </si>
   <si>
@@ -992,9 +938,6 @@
     <t>0.7009824349770584</t>
   </si>
   <si>
-    <t>2024-02-26T06:09:11.049664</t>
-  </si>
-  <si>
     <t>0.2884727923402281</t>
   </si>
   <si>
@@ -1028,16 +971,469 @@
     <t>0.7537880252425021</t>
   </si>
   <si>
-    <t>2024-02-26T06:09:18.180384</t>
-  </si>
-  <si>
     <t>Improvement, over base</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:44:05.631565</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:44:18.923528</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:44:33.323036</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:44:47.753454</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:01.918173</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:16.040242</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:29.529837</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:43.298710</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:45:57.473727</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:11.217826</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:24.397391</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:37.819499</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:46:51.760796</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:05.242625</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:18.623364</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:32.257420</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:45.720646</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:47:59.107147</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:12.692337</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:25.962858</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:39.591344</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_length']</t>
+  </si>
+  <si>
+    <t>0.3046067708991346</t>
+  </si>
+  <si>
+    <t>[0.04149378 0.95850622]</t>
+  </si>
+  <si>
+    <t>-0.03813091161747729</t>
+  </si>
+  <si>
+    <t>-0.04026575228581941</t>
+  </si>
+  <si>
+    <t>0.4327649279819549</t>
+  </si>
+  <si>
+    <t>0.7287435269510059</t>
+  </si>
+  <si>
+    <t>-0.03363615367313876</t>
+  </si>
+  <si>
+    <t>0.15130353970229776</t>
+  </si>
+  <si>
+    <t>0.6351125481444465</t>
+  </si>
+  <si>
+    <t>0.42806209417410973</t>
+  </si>
+  <si>
+    <t>0.7201649855850288</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:48:53.089707</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_unique']</t>
+  </si>
+  <si>
+    <t>0.28720951651645277</t>
+  </si>
+  <si>
+    <t>[3.0578543e-16 1.0000000e+00]</t>
+  </si>
+  <si>
+    <t>0.2872095165164527</t>
+  </si>
+  <si>
+    <t>-0.19820238206400925</t>
+  </si>
+  <si>
+    <t>-0.1510939610622095</t>
+  </si>
+  <si>
+    <t>0.4428363275457129</t>
+  </si>
+  <si>
+    <t>0.8419887825589563</t>
+  </si>
+  <si>
+    <t>-0.030700332563499456</t>
+  </si>
+  <si>
+    <t>0.28074569414597594</t>
+  </si>
+  <si>
+    <t>0.1507302302598491</t>
+  </si>
+  <si>
+    <t>0.6351258582642615</t>
+  </si>
+  <si>
+    <t>0.8063177552850803</t>
+  </si>
+  <si>
+    <t>0.42827102842723425</t>
+  </si>
+  <si>
+    <t>-0.1264073301892032</t>
+  </si>
+  <si>
+    <t>0.7522855698698188</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:49:06.590615</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_row_size']</t>
+  </si>
+  <si>
+    <t>0.29365938996667323</t>
+  </si>
+  <si>
+    <t>[1.49917553e-04 9.99850082e-01]</t>
+  </si>
+  <si>
+    <t>-0.19822210217710312</t>
+  </si>
+  <si>
+    <t>-0.15109775838679254</t>
+  </si>
+  <si>
+    <t>0.442810022754573</t>
+  </si>
+  <si>
+    <t>0.8419877022066079</t>
+  </si>
+  <si>
+    <t>-0.030700332566694306</t>
+  </si>
+  <si>
+    <t>0.8168954290653031</t>
+  </si>
+  <si>
+    <t>0.9260176355214788</t>
+  </si>
+  <si>
+    <t>0.6694748056726177</t>
+  </si>
+  <si>
+    <t>0.8010927667358274</t>
+  </si>
+  <si>
+    <t>0.6167425673925833</t>
+  </si>
+  <si>
+    <t>-0.13267017505778406</t>
+  </si>
+  <si>
+    <t>0.40543641503559463</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:49:20.138733</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_cache_age']</t>
+  </si>
+  <si>
+    <t>0.28722941065246305</t>
+  </si>
+  <si>
+    <t>[1.01010101e-20 1.00000000e+00]</t>
+  </si>
+  <si>
+    <t>-0.19820252425037121</t>
+  </si>
+  <si>
+    <t>-0.151094067141241</t>
+  </si>
+  <si>
+    <t>0.4428365183588684</t>
+  </si>
+  <si>
+    <t>0.841988799680358</t>
+  </si>
+  <si>
+    <t>-0.030700332563414062</t>
+  </si>
+  <si>
+    <t>0.28067980373808926</t>
+  </si>
+  <si>
+    <t>0.15617443888343147</t>
+  </si>
+  <si>
+    <t>0.635139421166648</t>
+  </si>
+  <si>
+    <t>0.8061052786109395</t>
+  </si>
+  <si>
+    <t>0.4310801818413576</t>
+  </si>
+  <si>
+    <t>-0.12642392844655354</t>
+  </si>
+  <si>
+    <t>0.7499837057328728</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:49:33.681278</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_min_bounds_range']</t>
+  </si>
+  <si>
+    <t>0.2875725487536942</t>
+  </si>
+  <si>
+    <t>[ 9.99002997e-16 -1.00000000e+00]</t>
+  </si>
+  <si>
+    <t>0.28757254875369415</t>
+  </si>
+  <si>
+    <t>-0.19820217539265486</t>
+  </si>
+  <si>
+    <t>-0.15109423137673356</t>
+  </si>
+  <si>
+    <t>0.4428364725600814</t>
+  </si>
+  <si>
+    <t>0.841988811055432</t>
+  </si>
+  <si>
+    <t>-0.030700332563454745</t>
+  </si>
+  <si>
+    <t>0.28009463716193067</t>
+  </si>
+  <si>
+    <t>0.15099813511474353</t>
+  </si>
+  <si>
+    <t>0.6351400468702397</t>
+  </si>
+  <si>
+    <t>0.8063561467040462</t>
+  </si>
+  <si>
+    <t>0.4290359267881461</t>
+  </si>
+  <si>
+    <t>-0.12642126643931306</t>
+  </si>
+  <si>
+    <t>0.7545016821433442</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:49:47.359877</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_length']</t>
+  </si>
+  <si>
+    <t>0.29986149697025766</t>
+  </si>
+  <si>
+    <t>-0.06327359726214174</t>
+  </si>
+  <si>
+    <t>-0.10799627044547151</t>
+  </si>
+  <si>
+    <t>0.4390953720727307</t>
+  </si>
+  <si>
+    <t>0.7445931424109817</t>
+  </si>
+  <si>
+    <t>-0.03458259884599362</t>
+  </si>
+  <si>
+    <t>0.2805496015330273</t>
+  </si>
+  <si>
+    <t>0.15130353970230032</t>
+  </si>
+  <si>
+    <t>0.8063588052953502</t>
+  </si>
+  <si>
+    <t>-0.12642140755092474</t>
+  </si>
+  <si>
+    <t>0.7444327464371353</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:50:01.044385</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_unique']</t>
+  </si>
+  <si>
+    <t>0.28714762885574685</t>
+  </si>
+  <si>
+    <t>[6.08482427e-14 1.00000000e+00]</t>
+  </si>
+  <si>
+    <t>-0.19820255003322804</t>
+  </si>
+  <si>
+    <t>-0.15109404337315674</t>
+  </si>
+  <si>
+    <t>0.4428365065438411</t>
+  </si>
+  <si>
+    <t>0.8419888063738337</t>
+  </si>
+  <si>
+    <t>-0.030700332563411106</t>
+  </si>
+  <si>
+    <t>0.28055215098587266</t>
+  </si>
+  <si>
+    <t>0.1512998596281131</t>
+  </si>
+  <si>
+    <t>0.6351125593109233</t>
+  </si>
+  <si>
+    <t>0.8063582447759344</t>
+  </si>
+  <si>
+    <t>0.4280682364508262</t>
+  </si>
+  <si>
+    <t>-0.12642142030137787</t>
+  </si>
+  <si>
+    <t>0.751868381201704</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:50:14.325485</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_row_size']</t>
+  </si>
+  <si>
+    <t>0.28720675068811397</t>
+  </si>
+  <si>
+    <t>[0.1369863 0.8630137]</t>
+  </si>
+  <si>
+    <t>0.287206750688114</t>
+  </si>
+  <si>
+    <t>-0.1982025313746255</t>
+  </si>
+  <si>
+    <t>-0.15109407891336127</t>
+  </si>
+  <si>
+    <t>0.4428364896891961</t>
+  </si>
+  <si>
+    <t>0.8419888049264956</t>
+  </si>
+  <si>
+    <t>-0.030700332563397992</t>
+  </si>
+  <si>
+    <t>0.27826680080963767</t>
+  </si>
+  <si>
+    <t>0.14599778714026018</t>
+  </si>
+  <si>
+    <t>0.6349951181543375</t>
+  </si>
+  <si>
+    <t>0.8062903322312782</t>
+  </si>
+  <si>
+    <t>0.4269641733426444</t>
+  </si>
+  <si>
+    <t>-0.12635369364882554</t>
+  </si>
+  <si>
+    <t>0.7545346363343373</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:50:27.778891</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_cache_age']</t>
+  </si>
+  <si>
+    <t>2024-02-26T07:50:41.268725</t>
+  </si>
+  <si>
+    <t>['t_length', 'c_tbl_max_bounds_range']</t>
+  </si>
+  <si>
+    <t>0.28757254882946365</t>
+  </si>
+  <si>
+    <t>0.2875725488294636</t>
+  </si>
+  <si>
+    <t>-0.12642126573086906</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1872,11 +2268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1885,10 +2281,8 @@
     <col min="2" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
@@ -1928,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -1969,7 +2363,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1993,8 +2387,12 @@
         <v>52</v>
       </c>
       <c r="I2">
-        <f>_xlfn.NUMBERVALUE(H2,".")</f>
+        <f t="shared" ref="I2:I31" si="0">_xlfn.NUMBERVALUE(H2,".")</f>
         <v>0.28713867681092298</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2/$I$2-1</f>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>53</v>
@@ -2035,7 +2433,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2059,11 +2457,11 @@
         <v>187</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I21" si="0">_xlfn.NUMBERVALUE(H3,".")</f>
+        <f t="shared" si="0"/>
         <v>0.28749773585635602</v>
       </c>
       <c r="J3" s="1">
-        <f>I3/$I$2-1</f>
+        <f t="shared" ref="J3:J31" si="1">I3/$I$2-1</f>
         <v>1.2504725919229021E-3</v>
       </c>
       <c r="K3" t="s">
@@ -2105,7 +2503,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -2120,54 +2518,54 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
         <v>0.288474918381665</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J21" si="1">I4/$I$2-1</f>
+        <f t="shared" si="1"/>
         <v>4.653645359040004E-3</v>
       </c>
       <c r="K4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L4" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" t="s">
         <v>205</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>206</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>207</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>208</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>209</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>210</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>211</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>212</v>
-      </c>
-      <c r="S4" t="s">
-        <v>213</v>
-      </c>
-      <c r="T4" t="s">
-        <v>214</v>
-      </c>
-      <c r="U4" t="s">
-        <v>215</v>
       </c>
       <c r="V4" t="s">
         <v>61</v>
@@ -2175,7 +2573,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2245,7 +2643,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2315,7 +2713,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -2385,7 +2783,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2400,13 +2798,13 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
         <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -2420,34 +2818,34 @@
         <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="N8" t="s">
         <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P8" t="s">
         <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="R8" t="s">
         <v>101</v>
       </c>
       <c r="S8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="T8" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="U8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="V8" t="s">
         <v>102</v>
@@ -2455,7 +2853,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -2470,13 +2868,13 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G9" t="s">
         <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -2487,7 +2885,7 @@
         <v>1.7160807323458371E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L9" t="s">
         <v>189</v>
@@ -2499,33 +2897,33 @@
         <v>191</v>
       </c>
       <c r="O9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P9" t="s">
         <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="R9" t="s">
         <v>101</v>
       </c>
       <c r="S9" t="s">
+        <v>219</v>
+      </c>
+      <c r="T9" t="s">
+        <v>220</v>
+      </c>
+      <c r="U9" t="s">
+        <v>225</v>
+      </c>
+      <c r="V9" t="s">
         <v>226</v>
-      </c>
-      <c r="T9" t="s">
-        <v>227</v>
-      </c>
-      <c r="U9" t="s">
-        <v>233</v>
-      </c>
-      <c r="V9" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -2595,7 +2993,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -2610,13 +3008,13 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -2627,45 +3025,45 @@
         <v>4.6518250597687993E-2</v>
       </c>
       <c r="K11" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" t="s">
+        <v>231</v>
+      </c>
+      <c r="M11" t="s">
+        <v>232</v>
+      </c>
+      <c r="N11" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" t="s">
+        <v>234</v>
+      </c>
+      <c r="P11" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>236</v>
+      </c>
+      <c r="R11" t="s">
+        <v>237</v>
+      </c>
+      <c r="S11" t="s">
+        <v>238</v>
+      </c>
+      <c r="T11" t="s">
+        <v>239</v>
+      </c>
+      <c r="U11" t="s">
         <v>240</v>
       </c>
-      <c r="L11" t="s">
+      <c r="V11" t="s">
         <v>241</v>
-      </c>
-      <c r="M11" t="s">
-        <v>242</v>
-      </c>
-      <c r="N11" t="s">
-        <v>243</v>
-      </c>
-      <c r="O11" t="s">
-        <v>244</v>
-      </c>
-      <c r="P11" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>246</v>
-      </c>
-      <c r="R11" t="s">
-        <v>247</v>
-      </c>
-      <c r="S11" t="s">
-        <v>248</v>
-      </c>
-      <c r="T11" t="s">
-        <v>249</v>
-      </c>
-      <c r="U11" t="s">
-        <v>250</v>
-      </c>
-      <c r="V11" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -2735,7 +3133,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -2750,13 +3148,13 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -2767,45 +3165,45 @@
         <v>2.4736448601931915E-3</v>
       </c>
       <c r="K13" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L13" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M13" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="N13" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="O13" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="P13" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="Q13" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="R13" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="S13" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="T13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="U13" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="V13" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -2820,13 +3218,13 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="H14" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -2837,45 +3235,45 @@
         <v>4.7771835212514935E-2</v>
       </c>
       <c r="K14" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L14" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="M14" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="N14" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="O14" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="Q14" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="R14" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="S14" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="T14" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="U14" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="V14" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -2945,7 +3343,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -3015,7 +3413,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -3030,13 +3428,13 @@
         <v>151</v>
       </c>
       <c r="F17" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="G17" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="H17" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -3047,45 +3445,45 @@
         <v>0.17851859201410125</v>
       </c>
       <c r="K17" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="L17" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="M17" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="N17" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="O17" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="P17" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="Q17" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="R17" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="S17" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="T17" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="U17" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="V17" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -3155,7 +3553,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -3170,13 +3568,13 @@
         <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G19" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="H19" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -3187,45 +3585,45 @@
         <v>2.9097346082101128E-2</v>
       </c>
       <c r="K19" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="L19" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="M19" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="N19" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="O19" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="P19" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="Q19" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="R19" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="S19" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="T19" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="U19" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="V19" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -3240,13 +3638,13 @@
         <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G20" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="H20" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -3257,19 +3655,19 @@
         <v>4.6462411268388681E-3</v>
       </c>
       <c r="K20" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="L20" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="M20" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="N20" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="O20" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="P20" t="s">
         <v>178</v>
@@ -3278,24 +3676,24 @@
         <v>179</v>
       </c>
       <c r="R20" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="S20" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="T20" t="s">
         <v>182</v>
       </c>
       <c r="U20" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="V20" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -3363,8 +3761,708 @@
         <v>184</v>
       </c>
     </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" t="s">
+        <v>335</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.30460677089913402</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0835044175234998E-2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>337</v>
+      </c>
+      <c r="L22" t="s">
+        <v>338</v>
+      </c>
+      <c r="M22" t="s">
+        <v>339</v>
+      </c>
+      <c r="N22" t="s">
+        <v>340</v>
+      </c>
+      <c r="O22" t="s">
+        <v>341</v>
+      </c>
+      <c r="P22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>342</v>
+      </c>
+      <c r="R22" t="s">
+        <v>343</v>
+      </c>
+      <c r="S22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" t="s">
+        <v>344</v>
+      </c>
+      <c r="U22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>347</v>
+      </c>
+      <c r="F23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G23" t="s">
+        <v>349</v>
+      </c>
+      <c r="H23" t="s">
+        <v>350</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0.28720951651645199</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4670903382228992E-4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>351</v>
+      </c>
+      <c r="L23" t="s">
+        <v>352</v>
+      </c>
+      <c r="M23" t="s">
+        <v>353</v>
+      </c>
+      <c r="N23" t="s">
+        <v>354</v>
+      </c>
+      <c r="O23" t="s">
+        <v>355</v>
+      </c>
+      <c r="P23" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>357</v>
+      </c>
+      <c r="R23" t="s">
+        <v>358</v>
+      </c>
+      <c r="S23" t="s">
+        <v>359</v>
+      </c>
+      <c r="T23" t="s">
+        <v>360</v>
+      </c>
+      <c r="U23" t="s">
+        <v>361</v>
+      </c>
+      <c r="V23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G24" t="s">
+        <v>366</v>
+      </c>
+      <c r="H24" t="s">
+        <v>365</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.29365938996667301</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2709281898808165E-2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>367</v>
+      </c>
+      <c r="L24" t="s">
+        <v>368</v>
+      </c>
+      <c r="M24" t="s">
+        <v>369</v>
+      </c>
+      <c r="N24" t="s">
+        <v>370</v>
+      </c>
+      <c r="O24" t="s">
+        <v>371</v>
+      </c>
+      <c r="P24" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>373</v>
+      </c>
+      <c r="R24" t="s">
+        <v>374</v>
+      </c>
+      <c r="S24" t="s">
+        <v>375</v>
+      </c>
+      <c r="T24" t="s">
+        <v>376</v>
+      </c>
+      <c r="U24" t="s">
+        <v>377</v>
+      </c>
+      <c r="V24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" t="s">
+        <v>381</v>
+      </c>
+      <c r="G25" t="s">
+        <v>382</v>
+      </c>
+      <c r="H25" t="s">
+        <v>381</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.28722941065246299</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1599310322016905E-4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L25" t="s">
+        <v>384</v>
+      </c>
+      <c r="M25" t="s">
+        <v>385</v>
+      </c>
+      <c r="N25" t="s">
+        <v>386</v>
+      </c>
+      <c r="O25" t="s">
+        <v>387</v>
+      </c>
+      <c r="P25" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>389</v>
+      </c>
+      <c r="R25" t="s">
+        <v>390</v>
+      </c>
+      <c r="S25" t="s">
+        <v>391</v>
+      </c>
+      <c r="T25" t="s">
+        <v>392</v>
+      </c>
+      <c r="U25" t="s">
+        <v>393</v>
+      </c>
+      <c r="V25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" t="s">
+        <v>399</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0.28757254875369398</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5110188135911695E-3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>400</v>
+      </c>
+      <c r="L26" t="s">
+        <v>401</v>
+      </c>
+      <c r="M26" t="s">
+        <v>402</v>
+      </c>
+      <c r="N26" t="s">
+        <v>403</v>
+      </c>
+      <c r="O26" t="s">
+        <v>404</v>
+      </c>
+      <c r="P26" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>406</v>
+      </c>
+      <c r="R26" t="s">
+        <v>407</v>
+      </c>
+      <c r="S26" t="s">
+        <v>408</v>
+      </c>
+      <c r="T26" t="s">
+        <v>409</v>
+      </c>
+      <c r="U26" t="s">
+        <v>410</v>
+      </c>
+      <c r="V26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>413</v>
+      </c>
+      <c r="F27" t="s">
+        <v>414</v>
+      </c>
+      <c r="G27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" t="s">
+        <v>414</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0.29986149697025699</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>4.430897397953748E-2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>415</v>
+      </c>
+      <c r="L27" t="s">
+        <v>416</v>
+      </c>
+      <c r="M27" t="s">
+        <v>417</v>
+      </c>
+      <c r="N27" t="s">
+        <v>418</v>
+      </c>
+      <c r="O27" t="s">
+        <v>419</v>
+      </c>
+      <c r="P27" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>421</v>
+      </c>
+      <c r="R27" t="s">
+        <v>49</v>
+      </c>
+      <c r="S27" t="s">
+        <v>422</v>
+      </c>
+      <c r="T27" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" t="s">
+        <v>423</v>
+      </c>
+      <c r="V27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>425</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>426</v>
+      </c>
+      <c r="F28" t="s">
+        <v>427</v>
+      </c>
+      <c r="G28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H28" t="s">
+        <v>427</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0.28714762885574602</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1176729385462565E-5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>429</v>
+      </c>
+      <c r="L28" t="s">
+        <v>430</v>
+      </c>
+      <c r="M28" t="s">
+        <v>431</v>
+      </c>
+      <c r="N28" t="s">
+        <v>432</v>
+      </c>
+      <c r="O28" t="s">
+        <v>433</v>
+      </c>
+      <c r="P28" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>435</v>
+      </c>
+      <c r="R28" t="s">
+        <v>436</v>
+      </c>
+      <c r="S28" t="s">
+        <v>437</v>
+      </c>
+      <c r="T28" t="s">
+        <v>438</v>
+      </c>
+      <c r="U28" t="s">
+        <v>439</v>
+      </c>
+      <c r="V28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>441</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" t="s">
+        <v>443</v>
+      </c>
+      <c r="G29" t="s">
+        <v>444</v>
+      </c>
+      <c r="H29" t="s">
+        <v>445</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0.28720675068811402</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3707665559746793E-4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>446</v>
+      </c>
+      <c r="L29" t="s">
+        <v>447</v>
+      </c>
+      <c r="M29" t="s">
+        <v>448</v>
+      </c>
+      <c r="N29" t="s">
+        <v>449</v>
+      </c>
+      <c r="O29" t="s">
+        <v>450</v>
+      </c>
+      <c r="P29" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>452</v>
+      </c>
+      <c r="R29" t="s">
+        <v>453</v>
+      </c>
+      <c r="S29" t="s">
+        <v>454</v>
+      </c>
+      <c r="T29" t="s">
+        <v>455</v>
+      </c>
+      <c r="U29" t="s">
+        <v>456</v>
+      </c>
+      <c r="V29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>458</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>459</v>
+      </c>
+      <c r="F30" t="s">
+        <v>381</v>
+      </c>
+      <c r="G30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H30" t="s">
+        <v>381</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0.28722941065246299</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1599310322016905E-4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" t="s">
+        <v>384</v>
+      </c>
+      <c r="M30" t="s">
+        <v>385</v>
+      </c>
+      <c r="N30" t="s">
+        <v>386</v>
+      </c>
+      <c r="O30" t="s">
+        <v>387</v>
+      </c>
+      <c r="P30" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>389</v>
+      </c>
+      <c r="R30" t="s">
+        <v>390</v>
+      </c>
+      <c r="S30" t="s">
+        <v>391</v>
+      </c>
+      <c r="T30" t="s">
+        <v>392</v>
+      </c>
+      <c r="U30" t="s">
+        <v>393</v>
+      </c>
+      <c r="V30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>461</v>
+      </c>
+      <c r="F31" t="s">
+        <v>462</v>
+      </c>
+      <c r="G31" t="s">
+        <v>398</v>
+      </c>
+      <c r="H31" t="s">
+        <v>463</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.28757254882946298</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5110190774672017E-3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>400</v>
+      </c>
+      <c r="L31" t="s">
+        <v>401</v>
+      </c>
+      <c r="M31" t="s">
+        <v>402</v>
+      </c>
+      <c r="N31" t="s">
+        <v>403</v>
+      </c>
+      <c r="O31" t="s">
+        <v>404</v>
+      </c>
+      <c r="P31" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>406</v>
+      </c>
+      <c r="R31" t="s">
+        <v>407</v>
+      </c>
+      <c r="S31" t="s">
+        <v>408</v>
+      </c>
+      <c r="T31" t="s">
+        <v>409</v>
+      </c>
+      <c r="U31" t="s">
+        <v>464</v>
+      </c>
+      <c r="V31" t="s">
+        <v>411</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="L2:L31 J1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
